--- a/Code/Results/Cases/Case_1_233/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_233/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.440349235297958</v>
+        <v>1.966632711548982</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3483776029631542</v>
+        <v>0.1492381229952713</v>
       </c>
       <c r="E2">
-        <v>3.588206272192792</v>
+        <v>1.028796604638046</v>
       </c>
       <c r="F2">
-        <v>7.318496704826146</v>
+        <v>3.094418889411116</v>
       </c>
       <c r="G2">
-        <v>0.0006635728838322779</v>
+        <v>0.002456796871078685</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.651780461046485</v>
+        <v>0.9175029732118674</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.963494839419468</v>
+        <v>1.859178166331844</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2883733214160458</v>
+        <v>0.142549881359642</v>
       </c>
       <c r="E3">
-        <v>3.05896384017953</v>
+        <v>0.899945511375364</v>
       </c>
       <c r="F3">
-        <v>6.117265617857129</v>
+        <v>2.92122096931999</v>
       </c>
       <c r="G3">
-        <v>0.0006885822055216815</v>
+        <v>0.002469214333684405</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.2543293139951</v>
+        <v>0.8239426501079095</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.68179884706916</v>
+        <v>1.794264786386805</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2553735480678512</v>
+        <v>0.1386897222866139</v>
       </c>
       <c r="E4">
-        <v>2.749315790413505</v>
+        <v>0.8207218208409301</v>
       </c>
       <c r="F4">
-        <v>5.441676664255965</v>
+        <v>2.818792460025463</v>
       </c>
       <c r="G4">
-        <v>0.0007037400918521167</v>
+        <v>0.002477204816748383</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.020603406753935</v>
+        <v>0.7668634579059415</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.569235150439511</v>
+        <v>1.768075960786632</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2426877269884216</v>
+        <v>0.1371765861492804</v>
       </c>
       <c r="E5">
-        <v>2.626038337992185</v>
+        <v>0.7884050725446343</v>
       </c>
       <c r="F5">
-        <v>5.178647964509963</v>
+        <v>2.778004526921677</v>
       </c>
       <c r="G5">
-        <v>0.0007099006161642205</v>
+        <v>0.002480553600082658</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.927375021526132</v>
+        <v>0.7436916263454521</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.550664695602791</v>
+        <v>1.763743161179207</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2406222755500664</v>
+        <v>0.1369288899016396</v>
       </c>
       <c r="E6">
-        <v>2.605720845369802</v>
+        <v>0.7830367961424116</v>
       </c>
       <c r="F6">
-        <v>5.135632947207995</v>
+        <v>2.77128832456134</v>
       </c>
       <c r="G6">
-        <v>0.0007109233906821525</v>
+        <v>0.002481115271205678</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.912002095907468</v>
+        <v>0.7398491889240404</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.680272393462303</v>
+        <v>1.793910530925189</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2551996096680966</v>
+        <v>0.138669075725943</v>
       </c>
       <c r="E7">
-        <v>2.747642522914717</v>
+        <v>0.8202861238679588</v>
       </c>
       <c r="F7">
-        <v>5.43808340271616</v>
+        <v>2.818238564959074</v>
       </c>
       <c r="G7">
-        <v>0.0007038232035447844</v>
+        <v>0.002477249603921249</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.019338589480185</v>
+        <v>0.766550601623095</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.273244475796218</v>
+        <v>1.929359213618341</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3267481906005116</v>
+        <v>0.1468796127552423</v>
       </c>
       <c r="E8">
-        <v>3.401887858895662</v>
+        <v>0.9843880708687607</v>
       </c>
       <c r="F8">
-        <v>6.889156668790889</v>
+        <v>3.033867954778032</v>
       </c>
       <c r="G8">
-        <v>0.0006722603134449903</v>
+        <v>0.00246100275070082</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.5122023177573</v>
+        <v>0.8851647043155424</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.559959567142187</v>
+        <v>2.203607054045222</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5113680716672775</v>
+        <v>0.1650312620857051</v>
       </c>
       <c r="E9">
-        <v>4.87062507572395</v>
+        <v>1.305590093728199</v>
       </c>
       <c r="F9">
-        <v>10.44804980922231</v>
+        <v>3.489284351722631</v>
       </c>
       <c r="G9">
-        <v>0.0006065591713681816</v>
+        <v>0.002432022954445883</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.598362779877277</v>
+        <v>1.12087801403942</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.665447554498826</v>
+        <v>2.410657956355521</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.7092106831729268</v>
+        <v>0.1797533012659187</v>
       </c>
       <c r="E10">
-        <v>6.228292244730397</v>
+        <v>1.541613214292596</v>
       </c>
       <c r="F10">
-        <v>14.05568202108475</v>
+        <v>3.845884571650544</v>
       </c>
       <c r="G10">
-        <v>0.0005503317532166172</v>
+        <v>0.002412452349766051</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.561829477345213</v>
+        <v>1.296256739433488</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.247795497663674</v>
+        <v>2.506128323726216</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.8330818324210441</v>
+        <v>0.1867821562674692</v>
       </c>
       <c r="E11">
-        <v>7.003085475482322</v>
+        <v>1.649089301858197</v>
       </c>
       <c r="F11">
-        <v>16.23079553058528</v>
+        <v>4.013374212612007</v>
       </c>
       <c r="G11">
-        <v>0.0005197998057239645</v>
+        <v>0.002403915148277098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.08703506477616</v>
+        <v>1.376589698236614</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.489688937059725</v>
+        <v>2.542470389771154</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8897024545447891</v>
+        <v>0.189494065753621</v>
       </c>
       <c r="E12">
-        <v>7.342239978407179</v>
+        <v>1.689811092670794</v>
       </c>
       <c r="F12">
-        <v>17.20609260940671</v>
+        <v>4.077596640481943</v>
       </c>
       <c r="G12">
-        <v>0.0005067645862307168</v>
+        <v>0.002400734281408042</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.31011964281123</v>
+        <v>1.407094890368853</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.436323503541871</v>
+        <v>2.534634961761981</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.876915935710656</v>
+        <v>0.188907732157702</v>
       </c>
       <c r="E13">
-        <v>7.266392963411135</v>
+        <v>1.68103978414976</v>
       </c>
       <c r="F13">
-        <v>16.98683978748369</v>
+        <v>4.063729063484175</v>
       </c>
       <c r="G13">
-        <v>0.0005096625789176944</v>
+        <v>0.002401417035108901</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.260617393769394</v>
+        <v>1.40052118866663</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.267161736583716</v>
+        <v>2.509114378700929</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.8374922006054817</v>
+        <v>0.1870042451252516</v>
       </c>
       <c r="E14">
-        <v>7.029815821177749</v>
+        <v>1.65243900459771</v>
       </c>
       <c r="F14">
-        <v>16.30717759624685</v>
+        <v>4.018641609656527</v>
       </c>
       <c r="G14">
-        <v>0.0005187652501018304</v>
+        <v>0.002403652417860616</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.104776799683691</v>
+        <v>1.379097646300295</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.166839914262084</v>
+        <v>2.493507122735537</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.8148643024083526</v>
+        <v>0.1858449228969334</v>
       </c>
       <c r="E15">
-        <v>6.892088595085056</v>
+        <v>1.634923414414033</v>
       </c>
       <c r="F15">
-        <v>15.91453865097401</v>
+        <v>3.991129336114739</v>
       </c>
       <c r="G15">
-        <v>0.000524109002394695</v>
+        <v>0.002405028406878362</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.013080325595752</v>
+        <v>1.36598632288036</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.629602263083825</v>
+        <v>2.404444974417231</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.7020895244541236</v>
+        <v>0.1793008389943509</v>
       </c>
       <c r="E16">
-        <v>6.182215920027602</v>
+        <v>1.534592194984924</v>
       </c>
       <c r="F16">
-        <v>13.92881775626307</v>
+        <v>3.835048161719044</v>
       </c>
       <c r="G16">
-        <v>0.0005521813157054058</v>
+        <v>0.002413017582644356</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.529970170451918</v>
+        <v>1.291018362782552</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.324635280521022</v>
+        <v>2.350140149594893</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6435860223095347</v>
+        <v>0.1753729964252386</v>
       </c>
       <c r="E17">
-        <v>5.796539133871249</v>
+        <v>1.473075029734218</v>
       </c>
       <c r="F17">
-        <v>12.87859258177969</v>
+        <v>3.740675251877008</v>
       </c>
       <c r="G17">
-        <v>0.0005678176416745728</v>
+        <v>0.00241801190239861</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.260795024417916</v>
+        <v>1.245173178112395</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.155875127357888</v>
+        <v>2.319025780731806</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6127181645592259</v>
+        <v>0.1731448728064322</v>
       </c>
       <c r="E18">
-        <v>5.587559090361282</v>
+        <v>1.437701678827892</v>
       </c>
       <c r="F18">
-        <v>12.3185152231739</v>
+        <v>3.686888066482709</v>
       </c>
       <c r="G18">
-        <v>0.0005764087969082546</v>
+        <v>0.002420918947204569</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.113174605189045</v>
+        <v>1.218855884395168</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.099718261164981</v>
+        <v>2.308511503444549</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6026704117468853</v>
+        <v>0.1723957283844868</v>
       </c>
       <c r="E19">
-        <v>5.518656268307751</v>
+        <v>1.425726316728912</v>
       </c>
       <c r="F19">
-        <v>12.13528035378542</v>
+        <v>3.668760235167667</v>
       </c>
       <c r="G19">
-        <v>0.000579260217912143</v>
+        <v>0.002421909155858697</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.064246011167484</v>
+        <v>1.209954009972421</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.356370407097529</v>
+        <v>2.35590850054308</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6495067304255429</v>
+        <v>0.1757878884971831</v>
       </c>
       <c r="E20">
-        <v>5.836173752451316</v>
+        <v>1.479622581307495</v>
       </c>
       <c r="F20">
-        <v>12.9855399091511</v>
+        <v>3.750670037209801</v>
       </c>
       <c r="G20">
-        <v>0.0005661978088338881</v>
+        <v>0.002417476687977826</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.288656425121758</v>
+        <v>1.25004809290283</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.316121018343097</v>
+        <v>2.51660520671328</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.8487343606066986</v>
+        <v>0.1875619614841639</v>
       </c>
       <c r="E21">
-        <v>7.097707820348091</v>
+        <v>1.660839063443348</v>
       </c>
       <c r="F21">
-        <v>16.50155930581468</v>
+        <v>4.031862913372379</v>
       </c>
       <c r="G21">
-        <v>0.0005161431448821308</v>
+        <v>0.002402994425671823</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.14971820766516</v>
+        <v>1.385387912775684</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.090763086322625</v>
+        <v>2.622737000038171</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.047344603547117</v>
+        <v>0.1955510367854458</v>
       </c>
       <c r="E22">
-        <v>8.245633312147703</v>
+        <v>1.779411905639989</v>
       </c>
       <c r="F22">
-        <v>19.86327205413647</v>
+        <v>4.220307966717996</v>
       </c>
       <c r="G22">
-        <v>0.0004730016571741859</v>
+        <v>0.002393832167530047</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.881116071963106</v>
+        <v>1.474337559825869</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.654541706642931</v>
+        <v>2.565989373484626</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.930338278723184</v>
+        <v>0.1912593550482597</v>
       </c>
       <c r="E23">
-        <v>7.580557410013711</v>
+        <v>1.716112217499983</v>
       </c>
       <c r="F23">
-        <v>17.89909803387491</v>
+        <v>4.119290547530284</v>
       </c>
       <c r="G23">
-        <v>0.0004977228243299668</v>
+        <v>0.002398694731670584</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.464150347066493</v>
+        <v>1.426816096632422</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.342003021206722</v>
+        <v>2.35330029868436</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.6468216109133778</v>
+        <v>0.1756002223976907</v>
       </c>
       <c r="E24">
-        <v>5.818216417137393</v>
+        <v>1.476662453459539</v>
       </c>
       <c r="F24">
-        <v>12.93705675484773</v>
+        <v>3.746149936751408</v>
       </c>
       <c r="G24">
-        <v>0.0005669313366318155</v>
+        <v>0.002417718547161495</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.276038684180378</v>
+        <v>1.24784402063392</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.192322616661215</v>
+        <v>2.128461556916591</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4541887072412294</v>
+        <v>0.1598873965600944</v>
       </c>
       <c r="E25">
-        <v>4.441768152684489</v>
+        <v>1.218720567282475</v>
       </c>
       <c r="F25">
-        <v>9.369123063090768</v>
+        <v>3.362376957551447</v>
       </c>
       <c r="G25">
-        <v>0.000625142036617283</v>
+        <v>0.002439557997987265</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.284998070674874</v>
+        <v>1.056747729427855</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_233/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_233/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.966632711548982</v>
+        <v>3.440349235297958</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1492381229952713</v>
+        <v>0.3483776029627563</v>
       </c>
       <c r="E2">
-        <v>1.028796604638046</v>
+        <v>3.588206272192764</v>
       </c>
       <c r="F2">
-        <v>3.094418889411116</v>
+        <v>7.318496704826174</v>
       </c>
       <c r="G2">
-        <v>0.002456796871078685</v>
+        <v>0.0006635728838301618</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9175029732118674</v>
+        <v>2.651780461046542</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.859178166331844</v>
+        <v>2.963494839419582</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.142549881359642</v>
+        <v>0.28837332141606</v>
       </c>
       <c r="E3">
-        <v>0.899945511375364</v>
+        <v>3.058963840179445</v>
       </c>
       <c r="F3">
-        <v>2.92122096931999</v>
+        <v>6.1172656178571</v>
       </c>
       <c r="G3">
-        <v>0.002469214333684405</v>
+        <v>0.0006885822052912715</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8239426501079095</v>
+        <v>2.254329313995129</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.794264786386805</v>
+        <v>2.681798847069047</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1386897222866139</v>
+        <v>0.2553735480674391</v>
       </c>
       <c r="E4">
-        <v>0.8207218208409301</v>
+        <v>2.749315790413448</v>
       </c>
       <c r="F4">
-        <v>2.818792460025463</v>
+        <v>5.441676664255851</v>
       </c>
       <c r="G4">
-        <v>0.002477204816748383</v>
+        <v>0.000703740091826964</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7668634579059415</v>
+        <v>2.02060340675402</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.768075960786632</v>
+        <v>2.569235150439681</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1371765861492804</v>
+        <v>0.2426877269880521</v>
       </c>
       <c r="E5">
-        <v>0.7884050725446343</v>
+        <v>2.626038337992171</v>
       </c>
       <c r="F5">
-        <v>2.778004526921677</v>
+        <v>5.178647964509906</v>
       </c>
       <c r="G5">
-        <v>0.002480553600082658</v>
+        <v>0.0007099006161096904</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7436916263454521</v>
+        <v>1.927375021526046</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.763743161179207</v>
+        <v>2.550664695602904</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1369288899016396</v>
+        <v>0.2406222755500806</v>
       </c>
       <c r="E6">
-        <v>0.7830367961424116</v>
+        <v>2.605720845369802</v>
       </c>
       <c r="F6">
-        <v>2.77128832456134</v>
+        <v>5.135632947207966</v>
       </c>
       <c r="G6">
-        <v>0.002481115271205678</v>
+        <v>0.0007109233906827691</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7398491889240404</v>
+        <v>1.912002095907468</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.793910530925189</v>
+        <v>2.680272393462417</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.138669075725943</v>
+        <v>0.2551996096682529</v>
       </c>
       <c r="E7">
-        <v>0.8202861238679588</v>
+        <v>2.747642522914759</v>
       </c>
       <c r="F7">
-        <v>2.818238564959074</v>
+        <v>5.438083402716273</v>
       </c>
       <c r="G7">
-        <v>0.002477249603921249</v>
+        <v>0.0007038232035373513</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.766550601623095</v>
+        <v>2.019338589480299</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.929359213618341</v>
+        <v>3.273244475796218</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1468796127552423</v>
+        <v>0.3267481906005258</v>
       </c>
       <c r="E8">
-        <v>0.9843880708687607</v>
+        <v>3.401887858895662</v>
       </c>
       <c r="F8">
-        <v>3.033867954778032</v>
+        <v>6.889156668790861</v>
       </c>
       <c r="G8">
-        <v>0.00246100275070082</v>
+        <v>0.0006722603134508024</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8851647043155424</v>
+        <v>2.512202317757385</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.203607054045222</v>
+        <v>4.5599595671423</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1650312620857051</v>
+        <v>0.5113680716671638</v>
       </c>
       <c r="E9">
-        <v>1.305590093728199</v>
+        <v>4.870625075723893</v>
       </c>
       <c r="F9">
-        <v>3.489284351722631</v>
+        <v>10.44804980922214</v>
       </c>
       <c r="G9">
-        <v>0.002432022954445883</v>
+        <v>0.0006065591711703994</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.12087801403942</v>
+        <v>3.598362779877334</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.410657956355521</v>
+        <v>5.665447554498826</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1797533012659187</v>
+        <v>0.7092106831733247</v>
       </c>
       <c r="E10">
-        <v>1.541613214292596</v>
+        <v>6.228292244730341</v>
       </c>
       <c r="F10">
-        <v>3.845884571650544</v>
+        <v>14.05568202108475</v>
       </c>
       <c r="G10">
-        <v>0.002412452349766051</v>
+        <v>0.0005503317530341509</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.296256739433488</v>
+        <v>4.56182947734527</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.506128323726216</v>
+        <v>6.247795497663901</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1867821562674692</v>
+        <v>0.8330818324208451</v>
       </c>
       <c r="E11">
-        <v>1.649089301858197</v>
+        <v>7.003085475482351</v>
       </c>
       <c r="F11">
-        <v>4.013374212612007</v>
+        <v>16.23079553058545</v>
       </c>
       <c r="G11">
-        <v>0.002403915148277098</v>
+        <v>0.000519799805631223</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.376589698236614</v>
+        <v>5.08703506477616</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.542470389771154</v>
+        <v>6.489688937059896</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.189494065753621</v>
+        <v>0.889702454545187</v>
       </c>
       <c r="E12">
-        <v>1.689811092670794</v>
+        <v>7.342239978407122</v>
       </c>
       <c r="F12">
-        <v>4.077596640481943</v>
+        <v>17.20609260940682</v>
       </c>
       <c r="G12">
-        <v>0.002400734281408042</v>
+        <v>0.0005067645865230938</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.407094890368853</v>
+        <v>5.310119642811287</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.534634961761981</v>
+        <v>6.436323503541871</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.188907732157702</v>
+        <v>0.8769159357104002</v>
       </c>
       <c r="E13">
-        <v>1.68103978414976</v>
+        <v>7.266392963411249</v>
       </c>
       <c r="F13">
-        <v>4.063729063484175</v>
+        <v>16.98683978748386</v>
       </c>
       <c r="G13">
-        <v>0.002401417035108901</v>
+        <v>0.0005096625788231471</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.40052118866663</v>
+        <v>5.260617393769451</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.509114378700929</v>
+        <v>6.26716173658366</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1870042451252516</v>
+        <v>0.8374922006052543</v>
       </c>
       <c r="E14">
-        <v>1.65243900459771</v>
+        <v>7.029815821177664</v>
       </c>
       <c r="F14">
-        <v>4.018641609656527</v>
+        <v>16.3071775962465</v>
       </c>
       <c r="G14">
-        <v>0.002403652417860616</v>
+        <v>0.0005187652501454998</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.379097646300295</v>
+        <v>5.104776799683634</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.493507122735537</v>
+        <v>6.166839914261914</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1858449228969334</v>
+        <v>0.8148643024083526</v>
       </c>
       <c r="E15">
-        <v>1.634923414414033</v>
+        <v>6.892088595084942</v>
       </c>
       <c r="F15">
-        <v>3.991129336114739</v>
+        <v>15.91453865097401</v>
       </c>
       <c r="G15">
-        <v>0.002405028406878362</v>
+        <v>0.0005241090023342484</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.36598632288036</v>
+        <v>5.013080325595752</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.404444974417231</v>
+        <v>5.629602263083939</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1793008389943509</v>
+        <v>0.7020895244541805</v>
       </c>
       <c r="E16">
-        <v>1.534592194984924</v>
+        <v>6.182215920027517</v>
       </c>
       <c r="F16">
-        <v>3.835048161719044</v>
+        <v>13.9288177562629</v>
       </c>
       <c r="G16">
-        <v>0.002413017582644356</v>
+        <v>0.0005521813157356039</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.291018362782552</v>
+        <v>4.529970170451804</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.350140149594893</v>
+        <v>5.324635280520909</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1753729964252386</v>
+        <v>0.6435860223091652</v>
       </c>
       <c r="E17">
-        <v>1.473075029734218</v>
+        <v>5.796539133871249</v>
       </c>
       <c r="F17">
-        <v>3.740675251877008</v>
+        <v>12.87859258177969</v>
       </c>
       <c r="G17">
-        <v>0.00241801190239861</v>
+        <v>0.000567817641905736</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.245173178112395</v>
+        <v>4.260795024417803</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.319025780731806</v>
+        <v>5.155875127358001</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1731448728064322</v>
+        <v>0.6127181645587996</v>
       </c>
       <c r="E18">
-        <v>1.437701678827892</v>
+        <v>5.587559090361282</v>
       </c>
       <c r="F18">
-        <v>3.686888066482709</v>
+        <v>12.31851522317385</v>
       </c>
       <c r="G18">
-        <v>0.002420918947204569</v>
+        <v>0.0005764087966061756</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.218855884395168</v>
+        <v>4.113174605189045</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.308511503444549</v>
+        <v>5.099718261164981</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1723957283844868</v>
+        <v>0.6026704117469137</v>
       </c>
       <c r="E19">
-        <v>1.425726316728912</v>
+        <v>5.518656268307723</v>
       </c>
       <c r="F19">
-        <v>3.668760235167667</v>
+        <v>12.13528035378542</v>
       </c>
       <c r="G19">
-        <v>0.002421909155858697</v>
+        <v>0.0005792602179098428</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.209954009972421</v>
+        <v>4.064246011167427</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.35590850054308</v>
+        <v>5.356370407097359</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1757878884971831</v>
+        <v>0.6495067304258271</v>
       </c>
       <c r="E20">
-        <v>1.479622581307495</v>
+        <v>5.836173752451259</v>
       </c>
       <c r="F20">
-        <v>3.750670037209801</v>
+        <v>12.98553990915093</v>
       </c>
       <c r="G20">
-        <v>0.002417476687977826</v>
+        <v>0.0005661978087507191</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.25004809290283</v>
+        <v>4.288656425121872</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.51660520671328</v>
+        <v>6.316121018342926</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1875619614841639</v>
+        <v>0.8487343606064144</v>
       </c>
       <c r="E21">
-        <v>1.660839063443348</v>
+        <v>7.09770782034812</v>
       </c>
       <c r="F21">
-        <v>4.031862913372379</v>
+        <v>16.50155930581462</v>
       </c>
       <c r="G21">
-        <v>0.002402994425671823</v>
+        <v>0.0005161431448830161</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.385387912775684</v>
+        <v>5.149718207665217</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.622737000038171</v>
+        <v>7.090763086322511</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1955510367854458</v>
+        <v>1.047344603547032</v>
       </c>
       <c r="E22">
-        <v>1.779411905639989</v>
+        <v>8.245633312147589</v>
       </c>
       <c r="F22">
-        <v>4.220307966717996</v>
+        <v>19.8632720541363</v>
       </c>
       <c r="G22">
-        <v>0.002393832167530047</v>
+        <v>0.0004730016571774338</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.474337559825869</v>
+        <v>5.881116071963049</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.565989373484626</v>
+        <v>6.654541706642647</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1912593550482597</v>
+        <v>0.9303382787227292</v>
       </c>
       <c r="E23">
-        <v>1.716112217499983</v>
+        <v>7.580557410013768</v>
       </c>
       <c r="F23">
-        <v>4.119290547530284</v>
+        <v>17.89909803387496</v>
       </c>
       <c r="G23">
-        <v>0.002398694731670584</v>
+        <v>0.0004977228242614355</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.426816096632422</v>
+        <v>5.464150347066493</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.35330029868436</v>
+        <v>5.342003021206722</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1756002223976907</v>
+        <v>0.6468216109134346</v>
       </c>
       <c r="E24">
-        <v>1.476662453459539</v>
+        <v>5.818216417137393</v>
       </c>
       <c r="F24">
-        <v>3.746149936751408</v>
+        <v>12.93705675484773</v>
       </c>
       <c r="G24">
-        <v>0.002417718547161495</v>
+        <v>0.0005669313366675744</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.24784402063392</v>
+        <v>4.276038684180321</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.128461556916591</v>
+        <v>4.192322616661272</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1598873965600944</v>
+        <v>0.4541887072413999</v>
       </c>
       <c r="E25">
-        <v>1.218720567282475</v>
+        <v>4.441768152684489</v>
       </c>
       <c r="F25">
-        <v>3.362376957551447</v>
+        <v>9.369123063090882</v>
       </c>
       <c r="G25">
-        <v>0.002439557997987265</v>
+        <v>0.0006251420366101367</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.056747729427855</v>
+        <v>3.284998070674874</v>
       </c>
       <c r="M25">
         <v>0</v>
